--- a/public/Excel/MASTER_PROMOSI.xlsx
+++ b/public/Excel/MASTER_PROMOSI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\WORKS\HWI\JPAYROLL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hrd\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t>-</t>
   </si>
@@ -83,18 +83,6 @@
     <t>number_of_employees</t>
   </si>
   <si>
-    <t>job_id</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>bagian</t>
-  </si>
-  <si>
     <t>ASSEMBLY-E3</t>
   </si>
   <si>
@@ -102,12 +90,27 @@
   </si>
   <si>
     <t>job_level</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code_job_level</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Bagian</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,32 +135,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -180,34 +176,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +491,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,30 +503,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1604000001</v>
       </c>
       <c r="B2" s="2">
@@ -536,8 +535,8 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -550,7 +549,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1604000017</v>
       </c>
       <c r="B3" s="2">
@@ -559,8 +558,8 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -573,7 +572,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1604000018</v>
       </c>
       <c r="B4" s="2">
@@ -582,8 +581,8 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>3</v>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -596,7 +595,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1604000020</v>
       </c>
       <c r="B5" s="2">
@@ -605,8 +604,8 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>4</v>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -619,7 +618,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1604000037</v>
       </c>
       <c r="B6" s="2">
@@ -628,8 +627,8 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
-        <v>5</v>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -642,7 +641,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>1609002307</v>
       </c>
       <c r="B7" s="2">
@@ -651,8 +650,8 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
-        <v>6</v>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -665,7 +664,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>2010037153</v>
       </c>
       <c r="B8" s="2">
@@ -674,8 +673,8 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>7</v>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
@@ -688,7 +687,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>2103041858</v>
       </c>
       <c r="B9" s="2">
@@ -697,8 +696,8 @@
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>8</v>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -711,7 +710,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2203052362</v>
       </c>
       <c r="B10" s="2">
@@ -720,8 +719,8 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
-        <v>9</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -734,7 +733,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>2203052371</v>
       </c>
       <c r="B11" s="2">
@@ -743,8 +742,8 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3">
-        <v>10</v>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -758,7 +757,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2258257301.53333</v>
       </c>
       <c r="B12" s="2">
@@ -767,8 +766,8 @@
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>11</v>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -782,7 +781,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>2338882517.3757601</v>
       </c>
       <c r="B13" s="2">
@@ -791,8 +790,8 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
-        <v>12</v>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>5</v>
@@ -806,7 +805,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>2419507733.2181802</v>
       </c>
       <c r="B14" s="2">
@@ -815,8 +814,8 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
-        <v>13</v>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -830,7 +829,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>2500132949.0606098</v>
       </c>
       <c r="B15" s="2">
@@ -839,8 +838,8 @@
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3">
-        <v>14</v>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -854,7 +853,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>2580758164.9030299</v>
       </c>
       <c r="B16" s="2">
@@ -863,8 +862,8 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
-        <v>15</v>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
@@ -878,7 +877,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>2661383380.74545</v>
       </c>
       <c r="B17" s="2">
@@ -887,11 +886,11 @@
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>16</v>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>0</v>
@@ -902,7 +901,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>2742008596.5878801</v>
       </c>
       <c r="B18" s="2">
@@ -911,8 +910,8 @@
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="3">
-        <v>17</v>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
@@ -926,7 +925,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>2822633812.4303002</v>
       </c>
       <c r="B19" s="2">
@@ -935,8 +934,8 @@
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>18</v>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -950,7 +949,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2903259028.2727299</v>
       </c>
       <c r="B20" s="2">
@@ -959,8 +958,8 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
-        <v>19</v>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>2</v>
@@ -974,7 +973,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>2983884244.11515</v>
       </c>
       <c r="B21" s="2">
@@ -983,8 +982,8 @@
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
@@ -997,7 +996,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>3064509459.9575701</v>
       </c>
       <c r="B22" s="2">
@@ -1006,8 +1005,8 @@
       <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <v>21</v>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
@@ -1020,7 +1019,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>3145134675.8000002</v>
       </c>
       <c r="B23" s="2">
@@ -1029,8 +1028,8 @@
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="3">
-        <v>22</v>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
@@ -1043,7 +1042,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>3225759891.6424198</v>
       </c>
       <c r="B24" s="2">
@@ -1052,8 +1051,8 @@
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
-        <v>23</v>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>

--- a/public/Excel/MASTER_PROMOSI.xlsx
+++ b/public/Excel/MASTER_PROMOSI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="12">
   <si>
     <t>-</t>
   </si>
@@ -38,54 +38,9 @@
     <t>HOT PRESS KEBERSIHAN</t>
   </si>
   <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>TECHNICAL HOTPRESS</t>
-  </si>
-  <si>
-    <t>SEWING-C</t>
-  </si>
-  <si>
-    <t>KEBERSIHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEBERSIHAN </t>
-  </si>
-  <si>
-    <t>GA (DRIVER)</t>
-  </si>
-  <si>
-    <t>DRIVER</t>
-  </si>
-  <si>
-    <t>SENIOR STAFF</t>
-  </si>
-  <si>
-    <t>LEADER</t>
-  </si>
-  <si>
-    <t>ASSEMBLY-E2</t>
-  </si>
-  <si>
-    <t>ASSEMBLY-H</t>
-  </si>
-  <si>
-    <t>DEVELOPMENT</t>
-  </si>
-  <si>
-    <t>STAFF</t>
-  </si>
-  <si>
-    <t>CHEMICAL ENGINEERING</t>
-  </si>
-  <si>
     <t>number_of_employees</t>
   </si>
   <si>
-    <t>ASSEMBLY-E3</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -104,21 +59,14 @@
     <t>Bagian</t>
   </si>
   <si>
-    <t>ST</t>
+    <t>SPV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,12 +135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,10 +144,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,7 +433,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,30 +445,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>25</v>
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1604000001</v>
       </c>
       <c r="B2" s="2">
@@ -536,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -549,20 +491,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1604000017</v>
       </c>
       <c r="B3" s="2">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -572,63 +514,63 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1604000018</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1604000020</v>
       </c>
       <c r="B5" s="2">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>1604000037</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -641,53 +583,53 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>1609002307</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>2010037153</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>2103041858</v>
       </c>
       <c r="B9" s="2">
@@ -697,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
@@ -710,54 +652,54 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>2203052362</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>2203052371</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>2258257301.53333</v>
       </c>
       <c r="B12" s="2">
@@ -767,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -781,20 +723,20 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>2338882517.3757601</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>0</v>
@@ -805,65 +747,65 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>2419507733.2181802</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>2500132949.0606098</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>2580758164.9030299</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
@@ -877,55 +819,55 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>2661383380.74545</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>2742008596.5878801</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>2822633812.4303002</v>
       </c>
       <c r="B19" s="2">
@@ -935,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>0</v>
@@ -949,54 +891,54 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>2903259028.2727299</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>2983884244.11515</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>3064509459.9575701</v>
       </c>
       <c r="B22" s="2">
@@ -1006,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
@@ -1019,20 +961,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>3145134675.8000002</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>0</v>
@@ -1042,7 +984,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>3225759891.6424198</v>
       </c>
       <c r="B24" s="2">
@@ -1052,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
